--- a/data_analysis/multi_omics/k_means/cluster_1/cluster1.xlsx
+++ b/data_analysis/multi_omics/k_means/cluster_1/cluster1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>variable_id</t>
   </si>
@@ -23,37 +23,58 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>FFA.22.6.</t>
-  </si>
-  <si>
-    <t>FFA.20.4.</t>
-  </si>
-  <si>
-    <t>FFA.22.4.</t>
-  </si>
-  <si>
-    <t>FFA.22.5.</t>
-  </si>
-  <si>
-    <t>FFA.18.2.</t>
-  </si>
-  <si>
-    <t>FFA.16.1.</t>
-  </si>
-  <si>
-    <t>FFA.18.3.</t>
-  </si>
-  <si>
-    <t>FFA.20.5.</t>
-  </si>
-  <si>
-    <t>M5.58_302.2322m.z</t>
-  </si>
-  <si>
-    <t>M11.28_309.2046m.z</t>
-  </si>
-  <si>
-    <t>M11.28_227.2015m.z</t>
+    <t>M10.93_519.3316n</t>
+  </si>
+  <si>
+    <t>M10.01_439.2696n</t>
+  </si>
+  <si>
+    <t>M10.86_500.2779m.z</t>
+  </si>
+  <si>
+    <t>M10.01_453.2852n</t>
+  </si>
+  <si>
+    <t>M10.93_104.1069m.z</t>
+  </si>
+  <si>
+    <t>M8.93_135.0298m.z</t>
+  </si>
+  <si>
+    <t>M5.82_478.2934m.z</t>
+  </si>
+  <si>
+    <t>M9.86_495.2960m.z</t>
+  </si>
+  <si>
+    <t>M9.00_330.2405n</t>
+  </si>
+  <si>
+    <t>M10.84_476.2778m.z</t>
+  </si>
+  <si>
+    <t>M6.26_266.1384m.z</t>
+  </si>
+  <si>
+    <t>M11.28_478.2933m.z</t>
+  </si>
+  <si>
+    <t>M11.88_437.3268m.z</t>
+  </si>
+  <si>
+    <t>M6.45_218.1183m.z</t>
+  </si>
+  <si>
+    <t>M11.92_203.0672m.z</t>
+  </si>
+  <si>
+    <t>M10.60_205.1181m.z</t>
+  </si>
+  <si>
+    <t>M6.08_289.0718m.z</t>
+  </si>
+  <si>
+    <t>M5.89_152.0704m.z</t>
   </si>
 </sst>
 </file>
@@ -120,7 +141,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6619678748712801</v>
+        <v>0.7795848882869902</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -131,7 +152,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6409237455487274</v>
+        <v>0.7827729864410323</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -142,7 +163,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6112751353756464</v>
+        <v>0.5658763316242746</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -153,7 +174,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7031983402039299</v>
+        <v>0.7859724532403349</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -164,7 +185,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6271105144285762</v>
+        <v>0.6816268487871856</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -175,7 +196,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5258668522822029</v>
+        <v>0.788762765403679</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -186,7 +207,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7171334628100289</v>
+        <v>0.7370282377298284</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -197,7 +218,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5904889501692767</v>
+        <v>0.5236986330797166</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -208,7 +229,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6021473231116832</v>
+        <v>0.6406221301167173</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -219,7 +240,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5162925654155933</v>
+        <v>0.5471219933582113</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -230,9 +251,86 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5195728788434052</v>
+        <v>0.5074160287415578</v>
       </c>
       <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6575192900225263</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5843715649450637</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5106449671723318</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5672633398420894</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6583437591058298</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5094165871385956</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6325947260898177</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
